--- a/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>MRGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,67 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43677</v>
+      </c>
+      <c r="F7" s="2">
         <v>43585</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43496</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43404</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43312</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43220</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43131</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43039</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42947</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +756,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +794,14 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +832,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +962,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +1017,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,31 +1066,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1109,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,10 +1120,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1075,8 +1143,14 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,83 +1158,95 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
@@ -1169,10 +1255,16 @@
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1295,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,28 +1333,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
@@ -1265,30 +1369,36 @@
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
@@ -1297,10 +1407,16 @@
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1561,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1436,10 +1576,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1459,28 +1599,34 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
@@ -1489,10 +1635,16 @@
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,28 +1675,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
@@ -1553,47 +1711,59 @@
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43677</v>
+      </c>
+      <c r="F38" s="2">
         <v>43585</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43496</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43404</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43312</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43220</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43131</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43039</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42947</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,13 +1792,15 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -1635,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1652,8 +1826,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1864,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1940,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,13 +1978,19 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -1795,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -1812,8 +2016,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +2054,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,8 +2092,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2206,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2002,10 +2242,16 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,13 +2282,19 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -2051,25 +2303,31 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,144 +2356,170 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
-        <v>2600</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>2600</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
       </c>
       <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -2254,10 +2540,16 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,65 +3128,77 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43677</v>
+      </c>
+      <c r="F80" s="2">
         <v>43585</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43496</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43404</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43312</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43220</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43131</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43039</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42947</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
@@ -2817,10 +3207,16 @@
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,28 +3453,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -3055,10 +3489,16 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3511,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3621,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,19 +3827,25 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -3371,24 +3863,30 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3405,23 +3903,29 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3435,6 +3939,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>MRGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,74 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +769,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,46 +1070,54 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,37 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,17 +1187,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1149,8 +1216,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,101 +1231,113 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
@@ -1261,10 +1346,16 @@
         <v>-400</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,34 +1436,40 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
@@ -1375,36 +1478,42 @@
         <v>-400</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
@@ -1413,10 +1522,16 @@
         <v>-400</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,17 +1715,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1605,34 +1744,40 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
@@ -1641,10 +1786,16 @@
         <v>-400</v>
       </c>
       <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,34 +1832,40 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
@@ -1717,53 +1874,65 @@
         <v>-400</v>
       </c>
       <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,19 +1965,21 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -1815,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1832,8 +2005,14 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,19 +2181,25 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -2005,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2022,8 +2225,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2269,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2248,10 +2487,16 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,19 +2533,25 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
@@ -2309,25 +2560,31 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,160 +2617,186 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2600</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>2600</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
       </c>
       <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2522,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -2546,10 +2831,16 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,77 +3511,89 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
@@ -3213,10 +3602,16 @@
         <v>-400</v>
       </c>
       <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3468,25 +3901,25 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -3495,10 +3928,16 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3653,20 +4112,26 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,25 +4318,31 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -3869,10 +4360,16 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,29 +4406,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -3945,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>MRGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,40 +1111,43 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,40 +1158,43 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1193,14 +1227,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1234,75 +1271,78 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
         <v>2100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1721,14 +1791,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1750,52 +1820,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2053,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,32 +2286,35 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2493,10 +2613,13 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2662,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2572,19 +2698,22 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,37 +2749,38 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
       </c>
       <c r="H57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
       </c>
       <c r="J57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
       </c>
       <c r="L57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
@@ -2658,36 +2789,39 @@
         <v>400</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
@@ -2696,19 +2830,22 @@
         <v>500</v>
       </c>
       <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2719,84 +2856,90 @@
         <v>1800</v>
       </c>
       <c r="F59" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G59" s="3">
         <v>1900</v>
       </c>
       <c r="H59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2813,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -2837,10 +2980,13 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3907,13 +4124,13 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3922,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -3934,10 +4151,13 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4118,20 +4348,23 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,32 +4661,35 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>MRGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,13 +1125,14 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1114,40 +1141,43 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1161,40 +1191,43 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1255,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1230,14 +1264,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1274,78 +1311,81 @@
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>3300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>2100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1794,14 +1864,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2063,26 +2150,26 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2298,26 +2400,26 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2616,10 +2736,13 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2674,26 +2800,26 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2701,19 +2827,22 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,40 +2880,41 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>700</v>
       </c>
       <c r="H57" s="3">
         <v>700</v>
       </c>
       <c r="I57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -2792,13 +2923,16 @@
         <v>400</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,25 +2940,25 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
@@ -2833,19 +2967,22 @@
         <v>500</v>
       </c>
       <c r="N58" s="3">
+        <v>500</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2859,87 +2996,93 @@
         <v>1800</v>
       </c>
       <c r="G59" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H59" s="3">
         <v>1900</v>
       </c>
       <c r="I59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2959,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -2983,10 +3126,13 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3624,46 +3810,49 @@
         <v>-2900</v>
       </c>
       <c r="E76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4127,13 +4344,13 @@
         <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4142,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -4154,10 +4371,13 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4351,20 +4581,23 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,35 +4913,38 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>MRGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,16 +1152,17 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1144,40 +1171,43 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1194,40 +1224,43 @@
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,11 +1289,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1267,14 +1301,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
@@ -1314,81 +1351,84 @@
         <v>-200</v>
       </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-300</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>2100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,11 +1925,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1867,14 +1937,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1896,58 +1966,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,38 +2227,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,38 +2490,41 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2739,10 +2859,13 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,38 +2914,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2830,19 +2956,22 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2890,34 +3021,34 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
       </c>
       <c r="L57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
@@ -2926,42 +3057,45 @@
         <v>400</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>500</v>
@@ -2970,19 +3104,22 @@
         <v>500</v>
       </c>
       <c r="O58" s="3">
+        <v>500</v>
+      </c>
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2999,90 +3136,96 @@
         <v>1800</v>
       </c>
       <c r="H59" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I59" s="3">
         <v>1900</v>
       </c>
       <c r="J59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3105,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -3129,10 +3272,13 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2900</v>
+        <v>-3700</v>
       </c>
       <c r="E76" s="3">
         <v>-2900</v>
       </c>
       <c r="F76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4347,13 +4564,13 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4362,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -4374,10 +4591,13 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4584,20 +4814,23 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,38 +5165,41 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>MRGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,19 +1178,20 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1174,40 +1200,43 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,10 +1244,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1227,40 +1256,43 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1292,11 +1325,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1304,14 +1337,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1333,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,10 +1378,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
@@ -1354,84 +1390,87 @@
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
       <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>2100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1439,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1928,11 +1997,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1940,14 +2009,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1969,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2281,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,41 +2591,44 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2862,10 +2981,13 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2959,19 +3084,22 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
       <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,46 +3141,47 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
       </c>
       <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
       </c>
       <c r="K57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
       </c>
       <c r="M57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
@@ -3060,45 +3190,48 @@
         <v>400</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>400</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
       </c>
       <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
@@ -3107,19 +3240,22 @@
         <v>500</v>
       </c>
       <c r="P58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
-      </c>
-      <c r="R58" s="3">
-        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3139,40 +3275,43 @@
         <v>1800</v>
       </c>
       <c r="I59" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J59" s="3">
         <v>1900</v>
       </c>
       <c r="K59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3180,52 +3319,55 @@
         <v>3800</v>
       </c>
       <c r="E60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3251,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -3275,10 +3417,13 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3498,52 +3655,55 @@
         <v>3800</v>
       </c>
       <c r="E66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3700</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-2900</v>
       </c>
       <c r="F76" s="3">
         <v>-2900</v>
       </c>
       <c r="G76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H76" s="3">
         <v>-4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,13 +4756,16 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -4567,13 +4783,13 @@
         <v>-200</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4582,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -4594,10 +4810,13 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4817,20 +5046,23 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5071,52 +5316,55 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5177,32 +5428,32 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5219,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>MRGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,22 +1205,23 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1203,40 +1230,43 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1259,40 +1289,43 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,17 +1356,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1340,14 +1374,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,13 +1415,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
@@ -1393,87 +1430,90 @@
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>2100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,17 +2064,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2012,14 +2082,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2111,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2400,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,13 +2634,16 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2594,44 +2693,47 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2984,10 +3104,13 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3165,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -3087,19 +3213,22 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
       <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,40 +3282,40 @@
         <v>1000</v>
       </c>
       <c r="E57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
       </c>
       <c r="L57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
       </c>
       <c r="N57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
       </c>
       <c r="P57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
@@ -3193,48 +3324,51 @@
         <v>400</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
@@ -3243,19 +3377,22 @@
         <v>500</v>
       </c>
       <c r="Q58" s="3">
+        <v>500</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
-      </c>
-      <c r="S58" s="3">
-        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3278,96 +3415,102 @@
         <v>1800</v>
       </c>
       <c r="J59" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K59" s="3">
         <v>1900</v>
       </c>
       <c r="L59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="E60" s="3">
         <v>3800</v>
       </c>
       <c r="F60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3396,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -3420,10 +3563,13 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="E66" s="3">
         <v>3800</v>
       </c>
       <c r="F66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-2900</v>
       </c>
       <c r="G76" s="3">
         <v>-2900</v>
       </c>
       <c r="H76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I76" s="3">
         <v>-4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,16 +4973,19 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -4786,13 +5003,13 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4801,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -4813,10 +5030,13 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5049,20 +5279,23 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,44 +5668,47 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>
